--- a/waffle-chart/waffle-chart.xlsx
+++ b/waffle-chart/waffle-chart.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>key</t>
   </si>
@@ -69,9 +69,6 @@
     <t/>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>Waffle chart</t>
   </si>
   <si>
@@ -87,10 +84,25 @@
     <t>Category 4</t>
   </si>
   <si>
-    <t>30</t>
+    <t>Cat 5</t>
   </si>
   <si>
-    <t>40</t>
+    <t>Cat 6</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Cat 7</t>
+  </si>
+  <si>
+    <t>Cat 8</t>
+  </si>
+  <si>
+    <t>Cat 9</t>
+  </si>
+  <si>
+    <t>Cat 10</t>
   </si>
 </sst>
 </file>
@@ -506,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -951,7 +963,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -996,65 +1008,92 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>14</v>
+      <c r="B5" s="16" t="s">
+        <v>21</v>
       </c>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-      <c r="B7" s="15"/>
+      <c r="B7" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="16"/>
+      <c r="A9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="16"/>
+      <c r="A10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="16"/>
+      <c r="A11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/waffle-chart/waffle-chart.xlsx
+++ b/waffle-chart/waffle-chart.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>key</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Cat 6</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>Cat 7</t>
   </si>
   <si>
@@ -103,6 +100,36 @@
   </si>
   <si>
     <t>Cat 10</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>120</t>
   </si>
 </sst>
 </file>
@@ -963,7 +990,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1011,7 +1038,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" s="10"/>
     </row>
@@ -1020,7 +1047,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C3" s="10"/>
     </row>
@@ -1029,7 +1056,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C4" s="10"/>
     </row>
@@ -1038,7 +1065,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C5" s="10"/>
     </row>
@@ -1047,7 +1074,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C6" s="10"/>
     </row>
@@ -1056,43 +1083,43 @@
         <v>20</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="B8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>21</v>
+      <c r="B9" s="16" t="s">
+        <v>32</v>
       </c>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>21</v>
+      <c r="B10" s="16" t="s">
+        <v>33</v>
       </c>
-      <c r="C9" s="13"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="13"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="B11" s="16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C11" s="13"/>
     </row>

--- a/waffle-chart/waffle-chart.xlsx
+++ b/waffle-chart/waffle-chart.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="labels" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>key</t>
   </si>
@@ -84,52 +84,19 @@
     <t>Category 4</t>
   </si>
   <si>
-    <t>Cat 5</t>
+    <t>5</t>
   </si>
   <si>
-    <t>Cat 6</t>
+    <t>4</t>
   </si>
   <si>
-    <t>Cat 7</t>
+    <t>12</t>
   </si>
   <si>
-    <t>Cat 8</t>
+    <t>44</t>
   </si>
   <si>
-    <t>Cat 9</t>
-  </si>
-  <si>
-    <t>Cat 10</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>120</t>
+    <t>maxWidth</t>
   </si>
 </sst>
 </file>
@@ -498,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -729,8 +696,12 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4">
+        <v>300</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -989,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1038,7 +1009,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C2" s="10"/>
     </row>
@@ -1047,7 +1018,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C3" s="10"/>
     </row>
@@ -1056,7 +1027,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C4" s="10"/>
     </row>
@@ -1065,62 +1036,38 @@
         <v>18</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="A6" s="11"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="A7" s="12"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A8" s="9"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="A9" s="10"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>33</v>
-      </c>
+      <c r="A10" s="10"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>34</v>
-      </c>
+      <c r="A11" s="10"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/waffle-chart/waffle-chart.xlsx
+++ b/waffle-chart/waffle-chart.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="labels" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>key</t>
   </si>
@@ -72,31 +72,52 @@
     <t>Waffle chart</t>
   </si>
   <si>
-    <t>Category 1</t>
+    <t>maxWidth</t>
   </si>
   <si>
-    <t>Category 2</t>
+    <t>labelWidth</t>
   </si>
   <si>
-    <t>Category 3</t>
+    <t>labelMargin</t>
   </si>
   <si>
-    <t>Category 4</t>
+    <t>23</t>
   </si>
   <si>
-    <t>5</t>
+    <t>8</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>12</t>
+    <t>Queensland</t>
   </si>
   <si>
-    <t>44</t>
+    <t>NSW</t>
   </si>
   <si>
-    <t>maxWidth</t>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Tasmania</t>
+  </si>
+  <si>
+    <t>theme</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>aqua, teal, blue, navy, yellow, olive, lime, green, fuchsia, purple, red</t>
+  </si>
+  <si>
+    <t>Comma seperated list of colors. Only used when "theme" is set to "custom".</t>
+  </si>
+  <si>
+    <t>monochrome</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
 </sst>
 </file>
@@ -157,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -186,6 +207,12 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,14 +492,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="96.83203125" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -539,7 +567,7 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="133" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -697,10 +725,10 @@
     </row>
     <row r="8" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -728,8 +756,12 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4">
+        <v>100</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -756,8 +788,12 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -784,9 +820,13 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="19"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -812,9 +852,15 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -960,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1006,7 +1052,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>19</v>
@@ -1015,28 +1061,28 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="10"/>
     </row>
